--- a/back/template/report_nalog.xlsx
+++ b/back/template/report_nalog.xlsx
@@ -375,14 +375,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Отчёт о выручке по дням до 14.05.2022</v>
+        <v>Отчёт о выручке по дням до 11.05.2022</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="str">
-        <v>Нижний парк</v>
+        <v>Нижний парк 1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="str">
-        <v>Нижний парк</v>
+        <v>Нижний парк 1</v>
       </c>
       <c r="D7">
         <v>2340</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>65078.08</v>
+        <v>86309.2</v>
       </c>
     </row>
     <row r="9">
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="str">
-        <v>Нижний парк</v>
+        <v>Нижний парк 1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="str">
-        <v>Нижний парк</v>
+        <v>Нижний парк 1</v>
       </c>
       <c r="D10">
         <v>33242.34</v>
@@ -535,7 +535,7 @@
         <v>10543.56</v>
       </c>
       <c r="E11">
-        <v>65078.08</v>
+        <v>86309.2</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,58 @@
         <v>54534.52</v>
       </c>
       <c r="E12">
-        <v>65078.08</v>
+        <v>86309.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>10.05.2022</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Европа</v>
+      </c>
+      <c r="D13">
+        <v>21231.12</v>
+      </c>
+      <c r="E13">
+        <v>86309.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>11.05.2022</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Европа</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>86309.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>11.05.2022</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Европа</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>86309.2</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +611,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
   </ignoredErrors>
 </worksheet>
 </file>